--- a/ranges.xlsx
+++ b/ranges.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Image </t>
+    <t>Image</t>
   </si>
   <si>
     <t>B2</t>
@@ -147,6 +147,111 @@
   </si>
   <si>
     <t>55-85</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>3-14</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>7-55</t>
+  </si>
+  <si>
+    <t>11-43</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>134-240</t>
+  </si>
+  <si>
+    <t>135-250</t>
+  </si>
+  <si>
+    <t>130-255</t>
+  </si>
+  <si>
+    <t>34-61</t>
+  </si>
+  <si>
+    <t>135-235</t>
+  </si>
+  <si>
+    <t>133-240</t>
+  </si>
+  <si>
+    <t>140-240</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>120-180</t>
+  </si>
+  <si>
+    <t>135-205</t>
+  </si>
+  <si>
+    <t>55-147</t>
+  </si>
+  <si>
+    <t>75-180</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>95-200</t>
+  </si>
+  <si>
+    <t>140-210</t>
+  </si>
+  <si>
+    <t>95-190</t>
+  </si>
+  <si>
+    <t>130-220</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>95-185</t>
+  </si>
+  <si>
+    <t>80-200</t>
+  </si>
+  <si>
+    <t>105-222</t>
+  </si>
+  <si>
+    <t>90-235</t>
+  </si>
+  <si>
+    <t>u6</t>
+  </si>
+  <si>
+    <t>130-190</t>
+  </si>
+  <si>
+    <t>120-205</t>
+  </si>
+  <si>
+    <t>130-195</t>
+  </si>
+  <si>
+    <t>140-230</t>
   </si>
 </sst>
 </file>
@@ -161,6 +266,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -242,10 +348,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -413,6 +519,132 @@
         <v>43</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ranges.xlsx
+++ b/ranges.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Water</t>
   </si>
@@ -164,6 +164,21 @@
     <t>11-43</t>
   </si>
   <si>
+    <t>n17</t>
+  </si>
+  <si>
+    <t>9-33</t>
+  </si>
+  <si>
+    <t>10-24</t>
+  </si>
+  <si>
+    <t>18-134</t>
+  </si>
+  <si>
+    <t>18-117</t>
+  </si>
+  <si>
     <t>Snow</t>
   </si>
   <si>
@@ -189,6 +204,12 @@
   </si>
   <si>
     <t>140-240</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>119-240</t>
   </si>
   <si>
     <t>Dessert</t>
@@ -351,7 +372,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -536,26 +557,43 @@
         <v>48</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,86 +601,97 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/ranges.xlsx
+++ b/ranges.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Water</t>
   </si>
@@ -210,6 +210,30 @@
   </si>
   <si>
     <t>119-240</t>
+  </si>
+  <si>
+    <t>118-222</t>
+  </si>
+  <si>
+    <t>120-240</t>
+  </si>
+  <si>
+    <t>24-67</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>111-255</t>
+  </si>
+  <si>
+    <t>135-240</t>
+  </si>
+  <si>
+    <t>118-250</t>
+  </si>
+  <si>
+    <t>3-94</t>
   </si>
   <si>
     <t>Dessert</t>
@@ -369,10 +393,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -574,124 +598,147 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>-225</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>70</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>85</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ranges.xlsx
+++ b/ranges.xlsx
@@ -233,7 +233,7 @@
     <t>118-250</t>
   </si>
   <si>
-    <t>3-94</t>
+    <t>13-94</t>
   </si>
   <si>
     <t>Dessert</t>
@@ -396,7 +396,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
